--- a/data/final_data/models_results.xlsx
+++ b/data/final_data/models_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Mejores Parámetros</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Mejor Puntuación (r2)</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo de Ejecución</t>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
@@ -488,19 +493,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8376728270197041</v>
+        <v>0.8266553664405054</v>
       </c>
       <c r="G2" t="n">
-        <v>2.591475963592529</v>
+        <v>645.2313770540065</v>
+      </c>
+      <c r="H2" t="n">
+        <v>771.2055511898568</v>
       </c>
     </row>
     <row r="3">
@@ -530,10 +538,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8265887530941182</v>
+        <v>0.8262456696066124</v>
       </c>
       <c r="G3" t="n">
-        <v>1.463412284851074</v>
+        <v>6985.360655737705</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9883.787696501184</v>
       </c>
     </row>
     <row r="4">
@@ -563,21 +574,24 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8000588410551925</v>
+        <v>0.7986690172945932</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7317147254943848</v>
+        <v>468.9695744710252</v>
+      </c>
+      <c r="H4" t="n">
+        <v>553.6945169918588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,10 +610,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7974386816105896</v>
+        <v>0.7979297645819481</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6558549404144287</v>
+        <v>126.9394801720046</v>
+      </c>
+      <c r="H5" t="n">
+        <v>149.0128015006222</v>
       </c>
     </row>
     <row r="6">
@@ -629,10 +646,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7873469931318916</v>
+        <v>0.7962568360766372</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6371750831604004</v>
+        <v>125.1937709083579</v>
+      </c>
+      <c r="H6" t="n">
+        <v>159.8148239475303</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +682,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7853080514696277</v>
+        <v>0.7925811927693933</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4714720249176025</v>
+        <v>231.9578106449412</v>
+      </c>
+      <c r="H7" t="n">
+        <v>281.2392788056391</v>
       </c>
     </row>
     <row r="8">
@@ -691,25 +714,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.779604342004472</v>
+        <v>0.7847442321329561</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4837818145751953</v>
+        <v>126.9394801720046</v>
+      </c>
+      <c r="H8" t="n">
+        <v>149.0128015006222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -728,10 +754,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7736783830825772</v>
+        <v>0.7840727257980256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.542457103729248</v>
+        <v>125.1937709083643</v>
+      </c>
+      <c r="H9" t="n">
+        <v>159.8148239475344</v>
       </c>
     </row>
     <row r="10">
@@ -752,19 +781,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7642679397494649</v>
+        <v>0.7838715031503918</v>
       </c>
       <c r="G10" t="n">
-        <v>1.678324937820435</v>
+        <v>125.1937709083624</v>
+      </c>
+      <c r="H10" t="n">
+        <v>159.8148239475326</v>
       </c>
     </row>
     <row r="11">
@@ -790,14 +822,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.4183861966032151</v>
+        <v>0.4091895002258109</v>
       </c>
       <c r="G11" t="n">
-        <v>1.339644908905029</v>
+        <v>14708.04838709677</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22543.73486280648</v>
       </c>
     </row>
     <row r="12">
@@ -808,7 +843,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -827,10 +862,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.3844873512223591</v>
+        <v>0.3840487789272097</v>
       </c>
       <c r="G12" t="n">
-        <v>1.400076866149902</v>
+        <v>13860.77419354839</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21551.86913830999</v>
       </c>
     </row>
     <row r="13">
@@ -841,7 +879,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -856,14 +894,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.3842063613256217</v>
+        <v>0.3753470302695391</v>
       </c>
       <c r="G13" t="n">
-        <v>1.354548931121826</v>
+        <v>15149.45161290323</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24454.90609132417</v>
       </c>
     </row>
     <row r="14">
@@ -893,10 +934,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8788511235177607</v>
+        <v>0.8788047397223911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1335110664367676</v>
+        <v>12267.59010659861</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15930.70572615388</v>
       </c>
     </row>
     <row r="15">
@@ -926,10 +970,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8788511235177607</v>
+        <v>0.8788047397223911</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1080739498138428</v>
+        <v>12267.59010659861</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15930.70572615388</v>
       </c>
     </row>
     <row r="16">
@@ -959,10 +1006,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8788511235177607</v>
+        <v>0.8788047397223911</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1129498481750488</v>
+        <v>12267.59010659861</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15930.70572615388</v>
       </c>
     </row>
     <row r="17">
@@ -973,7 +1023,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -983,19 +1033,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8251901708737511</v>
+        <v>0.8297721143975452</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02629613876342773</v>
+        <v>6223.203821656051</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8367.049591096769</v>
       </c>
     </row>
     <row r="18">
@@ -1006,7 +1059,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1025,10 +1078,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8250709359205377</v>
+        <v>0.8250867053246633</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02543377876281738</v>
+        <v>13157.46710419175</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16222.98472668767</v>
       </c>
     </row>
     <row r="19">
@@ -1058,10 +1114,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8250709359205377</v>
+        <v>0.8247652533381812</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07385802268981934</v>
+        <v>13154.66003402121</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16221.9918122578</v>
       </c>
     </row>
     <row r="20">
@@ -1091,10 +1150,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8107681818773333</v>
+        <v>0.8104431952621471</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09707999229431152</v>
+        <v>16130.21880235632</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20637.76900715574</v>
       </c>
     </row>
     <row r="21">
@@ -1124,10 +1186,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8091280177468573</v>
+        <v>0.8087139648940335</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1131200790405273</v>
+        <v>16070.50189509653</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20573.79380109976</v>
       </c>
     </row>
     <row r="22">
@@ -1157,10 +1222,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8091280177468573</v>
+        <v>0.8087139648940335</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09685921669006348</v>
+        <v>16070.50189509653</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20573.79380109976</v>
       </c>
     </row>
     <row r="23">
@@ -1171,7 +1239,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1186,14 +1254,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7791182295604404</v>
+        <v>0.7806121921167692</v>
       </c>
       <c r="G23" t="n">
-        <v>1.464776039123535</v>
+        <v>6906.866242038216</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9479.686978492016</v>
       </c>
     </row>
     <row r="24">
@@ -1204,7 +1275,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1219,14 +1290,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7789353373536685</v>
+        <v>0.779020495062145</v>
       </c>
       <c r="G24" t="n">
-        <v>1.452701091766357</v>
+        <v>6861.568376068377</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9343.132817537909</v>
       </c>
     </row>
     <row r="25">
@@ -1256,10 +1330,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.7773666165777242</v>
+        <v>0.7787943703675884</v>
       </c>
       <c r="G25" t="n">
-        <v>1.495956897735596</v>
+        <v>7035.224358974359</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9474.962895874851</v>
       </c>
     </row>
     <row r="26">
@@ -1289,10 +1366,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9119573949198786</v>
+        <v>0.911957394918276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02905392646789551</v>
+        <v>10052.62832412469</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12590.82623336105</v>
       </c>
     </row>
     <row r="27">
@@ -1322,10 +1402,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9119573949198786</v>
+        <v>0.911957394918276</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0223851203918457</v>
+        <v>10052.62832412469</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12590.82623336105</v>
       </c>
     </row>
     <row r="28">
@@ -1355,10 +1438,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9119573949198786</v>
+        <v>0.911957394918276</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02324581146240234</v>
+        <v>10052.62832412469</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12590.82623336105</v>
       </c>
     </row>
     <row r="29">
@@ -1388,10 +1474,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8716656999541177</v>
+        <v>0.8686281230485685</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03091216087341309</v>
+        <v>10247.42347307195</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13541.57329370354</v>
       </c>
     </row>
     <row r="30">
@@ -1421,10 +1510,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8716656999541177</v>
+        <v>0.8686281230485685</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02488327026367188</v>
+        <v>10247.42347307195</v>
+      </c>
+      <c r="H30" t="n">
+        <v>13541.57329370354</v>
       </c>
     </row>
     <row r="31">
@@ -1454,10 +1546,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8690224728281422</v>
+        <v>0.8683970483693836</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02561712265014648</v>
+        <v>10242.50322508021</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13541.98526975884</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1563,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1487,10 +1582,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8448794570389216</v>
+        <v>0.8439911709436985</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07112908363342285</v>
+        <v>14464.24317753942</v>
+      </c>
+      <c r="H32" t="n">
+        <v>18002.90638179204</v>
       </c>
     </row>
     <row r="33">
@@ -1520,10 +1618,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8448794570389216</v>
+        <v>0.8439911709436982</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06102681159973145</v>
+        <v>14464.24317753942</v>
+      </c>
+      <c r="H33" t="n">
+        <v>18002.90638179204</v>
       </c>
     </row>
     <row r="34">
@@ -1534,7 +1635,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1553,10 +1654,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8448794570389211</v>
+        <v>0.8439911709436982</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06115293502807617</v>
+        <v>14464.24317753942</v>
+      </c>
+      <c r="H34" t="n">
+        <v>18002.90638179204</v>
       </c>
     </row>
     <row r="35">
@@ -1586,10 +1690,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5842409377765125</v>
+        <v>0.579182999461675</v>
       </c>
       <c r="G35" t="n">
-        <v>1.447119951248169</v>
+        <v>10092.54545454546</v>
+      </c>
+      <c r="H35" t="n">
+        <v>13717.57246294308</v>
       </c>
     </row>
     <row r="36">
@@ -1619,10 +1726,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5498840015769138</v>
+        <v>0.5498642155581269</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05051875114440918</v>
+        <v>24906.67763377335</v>
+      </c>
+      <c r="H36" t="n">
+        <v>33257.92703650844</v>
       </c>
     </row>
     <row r="37">
@@ -1652,16 +1762,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5498840015769138</v>
+        <v>0.5498642155581269</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04988217353820801</v>
+        <v>24906.67763377335</v>
+      </c>
+      <c r="H37" t="n">
+        <v>33257.92703650844</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>all_pca</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1676,19 +1789,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6143037383604859</v>
+        <v>0.5954622869519756</v>
       </c>
       <c r="G38" t="n">
-        <v>1.878231048583984</v>
+        <v>31778.20005166451</v>
+      </c>
+      <c r="H38" t="n">
+        <v>35635.50114717926</v>
       </c>
     </row>
     <row r="39">
@@ -1709,19 +1825,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lasso</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>{'model__alpha': 1.0}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5954691990720262</v>
+        <v>0.5954622869519756</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04868412017822266</v>
+        <v>31778.20005166451</v>
+      </c>
+      <c r="H39" t="n">
+        <v>35635.50114717926</v>
       </c>
     </row>
     <row r="40">
@@ -1732,7 +1851,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1742,30 +1861,33 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lasso</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>{'model__alpha': 1.0}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.5954691990720262</v>
+        <v>0.5954622869519756</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04884195327758789</v>
+        <v>31778.20005166451</v>
+      </c>
+      <c r="H40" t="n">
+        <v>35635.50114717926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>all_pca</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1775,19 +1897,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Lasso</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>{'model__alpha': 1.0}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5954691990720262</v>
+        <v>0.554114325445066</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05037903785705566</v>
+        <v>4502.916666666662</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7269.256275958049</v>
       </c>
     </row>
     <row r="42">
@@ -1813,20 +1938,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5139596121566681</v>
+        <v>0.5340204901070382</v>
       </c>
       <c r="G42" t="n">
-        <v>1.284363985061646</v>
+        <v>4898.027777777779</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6671.579903628064</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1846,20 +1974,23 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4279983561615552</v>
+        <v>0.5302240404063443</v>
       </c>
       <c r="G43" t="n">
-        <v>1.224141120910645</v>
+        <v>4333.654761904763</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6552.279853049301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1874,25 +2005,28 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lasso</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>{'model__alpha': 0.1}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.4193026011928952</v>
+        <v>0.4550040501019313</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09322118759155273</v>
+        <v>5754.222222222222</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8846.489001537333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1907,19 +2041,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_neighbors': 3, 'model__weights': 'uniform'}</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.3718715267121412</v>
+        <v>0.452062103736354</v>
       </c>
       <c r="G45" t="n">
-        <v>1.792904138565063</v>
+        <v>31431.66666666666</v>
+      </c>
+      <c r="H45" t="n">
+        <v>37522.36740339761</v>
       </c>
     </row>
     <row r="46">
@@ -1930,7 +2067,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1940,25 +2077,28 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_neighbors': 3, 'model__weights': 'uniform'}</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.3637882901472601</v>
+        <v>0.452062103736354</v>
       </c>
       <c r="G46" t="n">
-        <v>1.447879076004028</v>
+        <v>31431.66666666666</v>
+      </c>
+      <c r="H46" t="n">
+        <v>37522.36740339761</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1973,30 +2113,33 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_neighbors': 3, 'model__weights': 'uniform'}</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.3606586412471778</v>
+        <v>0.452062103736354</v>
       </c>
       <c r="G47" t="n">
-        <v>1.305879831314087</v>
+        <v>31431.66666666666</v>
+      </c>
+      <c r="H47" t="n">
+        <v>37522.36740339761</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2006,25 +2149,28 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.3200772904561958</v>
+        <v>0.3805019903513441</v>
       </c>
       <c r="G48" t="n">
-        <v>1.398337841033936</v>
+        <v>4658.988095238096</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7524.143127587473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2039,19 +2185,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.2579283175122918</v>
+        <v>0.3531899478187541</v>
       </c>
       <c r="G49" t="n">
-        <v>1.958035945892334</v>
+        <v>5346.119047619049</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8124.541010583496</v>
       </c>
     </row>
     <row r="50">
@@ -2062,7 +2211,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2077,14 +2226,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9060651223899857</v>
+        <v>0.9022255617764465</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4907262325286865</v>
+        <v>417.6439647806824</v>
+      </c>
+      <c r="H50" t="n">
+        <v>501.9211030759884</v>
       </c>
     </row>
     <row r="51">
@@ -2095,7 +2247,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2114,10 +2266,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9025984985694235</v>
+        <v>0.8996874095754613</v>
       </c>
       <c r="G51" t="n">
-        <v>0.669788122177124</v>
+        <v>370.9352924936029</v>
+      </c>
+      <c r="H51" t="n">
+        <v>443.0858438723903</v>
       </c>
     </row>
     <row r="52">
@@ -2128,7 +2283,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2143,14 +2298,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.898184527247053</v>
+        <v>0.8996386218248196</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4215250015258789</v>
+        <v>171.6986388649018</v>
+      </c>
+      <c r="H52" t="n">
+        <v>221.4694619818118</v>
       </c>
     </row>
     <row r="53">
@@ -2176,14 +2334,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8970501462689704</v>
+        <v>0.8969607154213467</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5497698783874512</v>
+        <v>543.865627880172</v>
+      </c>
+      <c r="H53" t="n">
+        <v>671.4698555534543</v>
       </c>
     </row>
     <row r="54">
@@ -2194,7 +2355,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2213,10 +2374,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.8933802185709535</v>
+        <v>0.8969331482253995</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4262290000915527</v>
+        <v>2573.887604803232</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3186.684345412943</v>
       </c>
     </row>
     <row r="55">
@@ -2246,10 +2410,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.8922867657033754</v>
+        <v>0.8910868113489462</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4531128406524658</v>
+        <v>2008.395983526642</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2567.204917885668</v>
       </c>
     </row>
     <row r="56">
@@ -2275,14 +2442,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8841039674827276</v>
+        <v>0.885117523267653</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5594780445098877</v>
+        <v>181.4239160244893</v>
+      </c>
+      <c r="H56" t="n">
+        <v>227.7450199093549</v>
       </c>
     </row>
     <row r="57">
@@ -2308,14 +2478,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.8811640920875703</v>
+        <v>0.8825308904648628</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5459718704223633</v>
+        <v>477.3686033475961</v>
+      </c>
+      <c r="H57" t="n">
+        <v>606.5969802207838</v>
       </c>
     </row>
     <row r="58">
@@ -2345,10 +2518,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.8742736355179168</v>
+        <v>0.8694701028939041</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7911560535430908</v>
+        <v>2271.366454495897</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2823.442958432949</v>
       </c>
     </row>
     <row r="59">
@@ -2378,10 +2554,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.8073060880566292</v>
+        <v>0.8137856928544476</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3180170059204102</v>
+        <v>5819.397919792423</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7679.94255181569</v>
       </c>
     </row>
     <row r="60">
@@ -2411,10 +2590,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.7998079254138946</v>
+        <v>0.807071017078105</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3188538551330566</v>
+        <v>5819.397919792423</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7679.94255181569</v>
       </c>
     </row>
     <row r="61">
@@ -2435,7 +2617,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2444,10 +2626,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.7906402702019462</v>
+        <v>0.8005235401294168</v>
       </c>
       <c r="G61" t="n">
-        <v>1.337303876876831</v>
+        <v>5695.664416029786</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7399.592826175131</v>
       </c>
     </row>
     <row r="62">
@@ -2477,10 +2662,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8355560181287938</v>
+        <v>0.835407639715769</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1041080951690674</v>
+        <v>8479.319918194577</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10491.31864377702</v>
       </c>
     </row>
     <row r="63">
@@ -2510,10 +2698,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.8355560181287938</v>
+        <v>0.835407639715769</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09626412391662598</v>
+        <v>8479.319918194577</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10491.31864377702</v>
       </c>
     </row>
     <row r="64">
@@ -2543,16 +2734,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8355560181287938</v>
+        <v>0.835407639715769</v>
       </c>
       <c r="G64" t="n">
-        <v>0.09315180778503418</v>
+        <v>8479.319918194577</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10491.31864377702</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2576,10 +2770,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.8234173395418353</v>
+        <v>0.8162179757358741</v>
       </c>
       <c r="G65" t="n">
-        <v>1.457817792892456</v>
+        <v>5966.355555555554</v>
+      </c>
+      <c r="H65" t="n">
+        <v>8828.182552498951</v>
       </c>
     </row>
     <row r="66">
@@ -2605,14 +2802,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.8142798643861285</v>
+        <v>0.8156478593993161</v>
       </c>
       <c r="G66" t="n">
-        <v>1.852192163467407</v>
+        <v>6078.955555555555</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8306.092745020904</v>
       </c>
     </row>
     <row r="67">
@@ -2623,7 +2823,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2638,20 +2838,23 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.8122456257530649</v>
+        <v>0.8113910591564309</v>
       </c>
       <c r="G67" t="n">
-        <v>1.955742835998535</v>
+        <v>6226.903703703704</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8895.438399317338</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2675,16 +2878,19 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.8099394013417257</v>
+        <v>0.8095396656942844</v>
       </c>
       <c r="G68" t="n">
-        <v>2.261909961700439</v>
+        <v>6348.799999999998</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9595.569342792836</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2704,25 +2910,28 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.8085296825949847</v>
+        <v>0.8054691393159592</v>
       </c>
       <c r="G69" t="n">
-        <v>1.422298192977905</v>
+        <v>6818.4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10484.32192477044</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2737,14 +2946,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.8049751230621964</v>
+        <v>0.8034118148906521</v>
       </c>
       <c r="G70" t="n">
-        <v>1.618101119995117</v>
+        <v>6399.4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9715.786307745646</v>
       </c>
     </row>
     <row r="71">
@@ -2777,7 +2989,10 @@
         <v>0.7014864194785309</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5342907905578613</v>
+        <v>0.0171875</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.02412195036856127</v>
       </c>
     </row>
     <row r="72">
@@ -2810,7 +3025,10 @@
         <v>0.7014864194785309</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5711069107055664</v>
+        <v>0.0171875</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.02412195036856127</v>
       </c>
     </row>
     <row r="73">
@@ -2843,7 +3061,10 @@
         <v>0.7014864194785309</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6310091018676758</v>
+        <v>0.0171875</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.02412195036856127</v>
       </c>
     </row>
     <row r="74">
@@ -2873,10 +3094,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.9211187366768711</v>
+        <v>0.9211187366777974</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02756190299987793</v>
+        <v>12934.66153761527</v>
+      </c>
+      <c r="H74" t="n">
+        <v>16856.4256975101</v>
       </c>
     </row>
     <row r="75">
@@ -2906,21 +3130,24 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9211187366768711</v>
+        <v>0.9211187366777974</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02280235290527344</v>
+        <v>12934.66153761527</v>
+      </c>
+      <c r="H75" t="n">
+        <v>16856.4256975101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2930,19 +3157,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>AdaBoost</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.8737075309368889</v>
+        <v>0.8877289748834316</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7007980346679688</v>
+        <v>14866.88307052778</v>
+      </c>
+      <c r="H76" t="n">
+        <v>17302.99852805225</v>
       </c>
     </row>
     <row r="77">
@@ -2963,19 +3193,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.8613352573734356</v>
+        <v>0.8711166026091574</v>
       </c>
       <c r="G77" t="n">
-        <v>2.273600101470947</v>
+        <v>563.0783552858076</v>
+      </c>
+      <c r="H77" t="n">
+        <v>706.4955109319916</v>
       </c>
     </row>
     <row r="78">
@@ -2996,7 +3229,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3005,21 +3238,24 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.8529060795081529</v>
+        <v>0.8667870878936483</v>
       </c>
       <c r="G78" t="n">
-        <v>1.481061935424805</v>
+        <v>4293.007636070479</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5515.274652693042</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3034,14 +3270,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.8505191270085696</v>
+        <v>0.8548955205083573</v>
       </c>
       <c r="G79" t="n">
-        <v>0.5730862617492676</v>
+        <v>4293.007636070479</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5515.274652693042</v>
       </c>
     </row>
     <row r="80">
@@ -3071,10 +3310,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.8355753760013019</v>
+        <v>0.8411744021068943</v>
       </c>
       <c r="G80" t="n">
-        <v>1.353331804275513</v>
+        <v>9015.595505617977</v>
+      </c>
+      <c r="H80" t="n">
+        <v>14142.74402756458</v>
       </c>
     </row>
     <row r="81">
@@ -3104,10 +3346,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.830697120782372</v>
+        <v>0.8306832616422574</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04913687705993652</v>
+        <v>23217.92093915357</v>
+      </c>
+      <c r="H81" t="n">
+        <v>34028.01582915686</v>
       </c>
     </row>
     <row r="82">
@@ -3137,10 +3382,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.830697120782372</v>
+        <v>0.8306832616422574</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04911494255065918</v>
+        <v>23217.92093915357</v>
+      </c>
+      <c r="H82" t="n">
+        <v>34028.01582915686</v>
       </c>
     </row>
     <row r="83">
@@ -3151,7 +3399,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3166,14 +3414,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.785578729963557</v>
+        <v>0.7841561249174632</v>
       </c>
       <c r="G83" t="n">
-        <v>1.584357738494873</v>
+        <v>9613.080459770115</v>
+      </c>
+      <c r="H83" t="n">
+        <v>12910.88685220132</v>
       </c>
     </row>
     <row r="84">
@@ -3184,7 +3435,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>iter2-cov</t>
+          <t>iter1-normal</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3203,10 +3454,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.7682197498718927</v>
+        <v>0.7757962949846243</v>
       </c>
       <c r="G84" t="n">
-        <v>2.152838945388794</v>
+        <v>10474.61363636363</v>
+      </c>
+      <c r="H84" t="n">
+        <v>15769.42927827847</v>
       </c>
     </row>
     <row r="85">
@@ -3227,19 +3481,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>KNeighborsRegressor</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_neighbors': 5, 'model__weights': 'distance'}</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.7612592062419592</v>
+        <v>0.7669633466105895</v>
       </c>
       <c r="G85" t="n">
-        <v>1.612329959869385</v>
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/final_data/models_results.xlsx
+++ b/data/final_data/models_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,28 +498,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7818112837578888</v>
+        <v>0.7991100440099737</v>
       </c>
       <c r="G2" t="n">
-        <v>125.1937709083584</v>
+        <v>1972.90581007053</v>
       </c>
       <c r="H2" t="n">
-        <v>159.8148239475299</v>
+        <v>2408.717196459487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7790567398214128</v>
+        <v>0.7908389283811534</v>
       </c>
       <c r="G3" t="n">
-        <v>168.8398070936716</v>
+        <v>125.1937709083598</v>
       </c>
       <c r="H3" t="n">
-        <v>220.7767058273682</v>
+        <v>159.8148239475312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,28 +565,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7749588235337219</v>
+        <v>0.7818112837578888</v>
       </c>
       <c r="G4" t="n">
-        <v>8436.806451612903</v>
+        <v>125.1937709083584</v>
       </c>
       <c r="H4" t="n">
-        <v>17191.24228467282</v>
+        <v>159.8148239475299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>all_pca</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -610,19 +610,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.4023073847943693</v>
+        <v>0.7790567398214128</v>
       </c>
       <c r="G5" t="n">
-        <v>14906.68817204301</v>
+        <v>168.8398070936716</v>
       </c>
       <c r="H5" t="n">
-        <v>22780.57476845925</v>
+        <v>220.7767058273682</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -632,69 +632,69 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lasso</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'model__alpha': 1.0}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8782227954298299</v>
+        <v>0.7749588235337219</v>
       </c>
       <c r="G6" t="n">
-        <v>12165.52784680687</v>
+        <v>8436.806451612903</v>
       </c>
       <c r="H6" t="n">
-        <v>15611.27616523778</v>
+        <v>17191.24228467282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8250867053246633</v>
+        <v>0.767748819670236</v>
       </c>
       <c r="G7" t="n">
-        <v>13157.46710419175</v>
+        <v>8558.709677419354</v>
       </c>
       <c r="H7" t="n">
-        <v>16222.98472668767</v>
+        <v>13502.38362230428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_pca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8162758787319927</v>
+        <v>0.4023073847943693</v>
       </c>
       <c r="G8" t="n">
-        <v>6063.605095541402</v>
+        <v>14906.68817204301</v>
       </c>
       <c r="H8" t="n">
-        <v>8093.136806149845</v>
+        <v>22780.57476845925</v>
       </c>
     </row>
     <row r="9">
@@ -735,68 +735,68 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7814928223113168</v>
+        <v>0.3591271696322883</v>
       </c>
       <c r="G9" t="n">
-        <v>6901.503184713376</v>
+        <v>41654.98122779249</v>
       </c>
       <c r="H9" t="n">
-        <v>9199.355751466415</v>
+        <v>61610.11272561301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>Lasso</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'model__alpha': 1.0}</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8683970483693836</v>
+        <v>0.881412579857906</v>
       </c>
       <c r="G10" t="n">
-        <v>10242.50322508021</v>
+        <v>11931.29266196605</v>
       </c>
       <c r="H10" t="n">
-        <v>13541.98526975884</v>
+        <v>15234.03118865539</v>
       </c>
     </row>
     <row r="11">
@@ -807,38 +807,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>Lasso</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'model__alpha': 1.0}</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8619075288245526</v>
+        <v>0.8782227954298299</v>
       </c>
       <c r="G11" t="n">
-        <v>11048.68366679896</v>
+        <v>12165.52784680687</v>
       </c>
       <c r="H11" t="n">
-        <v>14440.9108669922</v>
+        <v>15611.27616523778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -862,55 +862,55 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8475433583246439</v>
+        <v>0.8782227954298299</v>
       </c>
       <c r="G12" t="n">
-        <v>12747.33661904163</v>
+        <v>12165.52784680687</v>
       </c>
       <c r="H12" t="n">
-        <v>16393.35150775692</v>
+        <v>15611.27616523778</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>all_pca</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5881168086989338</v>
+        <v>0.8519040456346328</v>
       </c>
       <c r="G13" t="n">
-        <v>10209.85858585859</v>
+        <v>12861.84812832881</v>
       </c>
       <c r="H13" t="n">
-        <v>13807.43009536474</v>
+        <v>15928.14144192811</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>all_pca</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5954622869519756</v>
+        <v>0.8250867053246633</v>
       </c>
       <c r="G14" t="n">
-        <v>31778.20005166451</v>
+        <v>13157.46710419175</v>
       </c>
       <c r="H14" t="n">
-        <v>35635.50114717926</v>
+        <v>16222.98472668767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -970,55 +970,55 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5769416256158483</v>
+        <v>0.8162758787319927</v>
       </c>
       <c r="G15" t="n">
-        <v>4269.217948717948</v>
+        <v>6063.605095541402</v>
       </c>
       <c r="H15" t="n">
-        <v>6320.105363420274</v>
+        <v>8093.136806149845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>all_pca</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 100}</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5111967499219865</v>
+        <v>0.7831885474957684</v>
       </c>
       <c r="G16" t="n">
-        <v>5057.678571428568</v>
+        <v>6890.929936305733</v>
       </c>
       <c r="H16" t="n">
-        <v>7364.584352057582</v>
+        <v>9632.263812462066</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_pca</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1028,69 +1028,69 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AdaBoost</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5100448562430773</v>
+        <v>0.7814928223113168</v>
       </c>
       <c r="G17" t="n">
-        <v>4656.982142857139</v>
+        <v>6901.503184713376</v>
       </c>
       <c r="H17" t="n">
-        <v>6669.691263769003</v>
+        <v>9199.355751466415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8965801627561933</v>
+        <v>0.8686281230485685</v>
       </c>
       <c r="G18" t="n">
-        <v>130.374806996153</v>
+        <v>10247.42347307195</v>
       </c>
       <c r="H18" t="n">
-        <v>163.8373199168905</v>
+        <v>13541.57329370354</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1100,33 +1100,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8935381172046053</v>
+        <v>0.8683970483693836</v>
       </c>
       <c r="G19" t="n">
-        <v>678.7488754213858</v>
+        <v>10242.50322508021</v>
       </c>
       <c r="H19" t="n">
-        <v>848.142880998446</v>
+        <v>13541.98526975884</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1136,33 +1136,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8843651374561421</v>
+        <v>0.8619075288245526</v>
       </c>
       <c r="G20" t="n">
-        <v>2432.939133061901</v>
+        <v>11048.68366679896</v>
       </c>
       <c r="H20" t="n">
-        <v>3007.131967392625</v>
+        <v>14440.9108669922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>all_pca</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1172,115 +1172,115 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>Lasso</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__alpha': 1.0}</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8017276396930795</v>
+        <v>0.8475433583246439</v>
       </c>
       <c r="G21" t="n">
-        <v>5695.664416029786</v>
+        <v>12747.33661904163</v>
       </c>
       <c r="H21" t="n">
-        <v>7399.592826175131</v>
+        <v>16393.35150775692</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>new_values_log</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lasso</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{'model__alpha': 1.0}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8581071555633925</v>
+        <v>0.8409166971251235</v>
       </c>
       <c r="G22" t="n">
-        <v>7297.583054981878</v>
+        <v>11190.15590003031</v>
       </c>
       <c r="H22" t="n">
-        <v>9056.313125900035</v>
+        <v>14542.43038636937</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>new_values</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8110888305671992</v>
+        <v>0.8327249951604662</v>
       </c>
       <c r="G23" t="n">
-        <v>6352.029629629628</v>
+        <v>11094.4376921783</v>
       </c>
       <c r="H23" t="n">
-        <v>10452.44383214746</v>
+        <v>14529.45886134592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_pca</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1290,17 +1290,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8082737121708247</v>
+        <v>0.593112861144889</v>
       </c>
       <c r="G24" t="n">
-        <v>6157.955555555555</v>
+        <v>10096.28956228956</v>
       </c>
       <c r="H24" t="n">
-        <v>9534.816043205961</v>
+        <v>13555.22883510884</v>
       </c>
     </row>
     <row r="25">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1330,55 +1330,55 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.7014864194785309</v>
+        <v>0.5881168086989338</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0171875</v>
+        <v>10209.85858585859</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02412195036856127</v>
+        <v>13807.43009536474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>new_values_log</t>
+          <t>all_pca</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>iter1-normal</t>
+          <t>iter2-cov</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 150}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8696942576254501</v>
+        <v>0.5954622869519756</v>
       </c>
       <c r="G26" t="n">
-        <v>655.7992869460218</v>
+        <v>31778.20005166451</v>
       </c>
       <c r="H26" t="n">
-        <v>814.9953610084065</v>
+        <v>35635.50114717926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>all_log</t>
+          <t>all_pca</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1388,33 +1388,33 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>LinearRegression</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 50}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8689318245995435</v>
+        <v>0.5954622869519756</v>
       </c>
       <c r="G27" t="n">
-        <v>4293.007636070479</v>
+        <v>31778.20005166451</v>
       </c>
       <c r="H27" t="n">
-        <v>5515.274652693042</v>
+        <v>35635.50114717926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>new_values</t>
+          <t>all_log</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1434,53 +1434,1061 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>{'model__n_estimators': 100}</t>
+          <t>{'model__n_estimators': 150}</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.864546607371803</v>
+        <v>0.5769416256158483</v>
       </c>
       <c r="G28" t="n">
-        <v>13328.58265560541</v>
+        <v>4269.217948717948</v>
       </c>
       <c r="H28" t="n">
-        <v>15573.85794376845</v>
+        <v>6320.105363420274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 50}</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5577570244251173</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5126.651515151517</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7297.975487538484</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 50}</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5236745259865461</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4109.75</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6892.741777346927</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 50}</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5111967499219865</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5057.678571428568</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7364.584352057582</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5100448562430773</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4656.982142857139</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6669.691263769003</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>all_log</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 150}</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5004000459414116</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4779.976190476188</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7428.495001896227</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8987375966474254</v>
+      </c>
+      <c r="G34" t="n">
+        <v>502.8541261096897</v>
+      </c>
+      <c r="H34" t="n">
+        <v>604.001533503911</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 150}</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8965801627561933</v>
+      </c>
+      <c r="G35" t="n">
+        <v>130.374806996153</v>
+      </c>
+      <c r="H35" t="n">
+        <v>163.8373199168905</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8960995906524449</v>
+      </c>
+      <c r="G36" t="n">
+        <v>502.8541261096907</v>
+      </c>
+      <c r="H36" t="n">
+        <v>604.0015335039109</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8935381172046053</v>
+      </c>
+      <c r="G37" t="n">
+        <v>678.7488754213858</v>
+      </c>
+      <c r="H37" t="n">
+        <v>848.142880998446</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>all_log</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 50}</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8843651374561421</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2432.939133061901</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3007.131967392625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>all_log</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 150}</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8734769496344397</v>
+      </c>
+      <c r="G39" t="n">
+        <v>116.9306429860283</v>
+      </c>
+      <c r="H39" t="n">
+        <v>148.9249902187291</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>all_pca</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>iter1-normal</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 50}</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8017276396930795</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5695.664416029786</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7399.592826175131</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>all_pca</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 150}</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7141495328033793</v>
+      </c>
+      <c r="G41" t="n">
+        <v>905.3919135790989</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1168.007782704242</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>{'model__alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8581071555633925</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7297.583054981878</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9056.313125900035</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>{'model__alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8581071555633925</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7297.583054981878</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9056.313125900035</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>{'model__alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8581071555633925</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7297.583054981878</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9056.313125900035</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>all_log</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8284572293075616</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6059.755555555555</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8819.669937134835</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>all_log</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 150}</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8110888305671992</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6352.029629629628</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10452.44383214746</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 50}</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8082737121708247</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6157.955555555555</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9534.816043205961</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>all_pca</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7014864194785309</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0171875</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02412195036856127</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>all_pca</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7014864194785309</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0171875</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.02412195036856127</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>{'model__alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9161110403997377</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13800.86724712527</v>
+      </c>
+      <c r="H50" t="n">
+        <v>17486.79398597115</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Lasso</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>{'model__alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9055999475696446</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13941.22118990055</v>
+      </c>
+      <c r="H51" t="n">
+        <v>17586.49004255879</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>all_log</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 150}</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8775124356646838</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.02218031609195402</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.03315621157521038</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>new_values_log</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 150}</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8696942576254501</v>
+      </c>
+      <c r="G53" t="n">
+        <v>655.7992869460218</v>
+      </c>
+      <c r="H53" t="n">
+        <v>814.9953610084065</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>all_log</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 50}</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8689318245995435</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4293.007636070479</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5515.274652693042</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>new_values</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AdaBoost</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.864546607371803</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13328.58265560541</v>
+      </c>
+      <c r="H55" t="n">
+        <v>15573.85794376845</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>all_pca</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>iter1-normal</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>RandomForest</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>{'model__n_estimators': 50}</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F56" t="n">
         <v>0.843261695729991</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G56" t="n">
         <v>9677.14606741573</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H56" t="n">
         <v>14954.26789931538</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>all_pca</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>iter2-cov</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>{'model__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8432265389400306</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9131.943820224718</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15302.51074978191</v>
       </c>
     </row>
   </sheetData>
